--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>-13.96209982517394</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.34254192313295</v>
+        <v>-14.16656828063731</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5760247619665139</v>
+        <v>-0.5135352005029554</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.86281730464763</v>
+        <v>-10.46568848254955</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.76842726480699</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.54123071105898</v>
+        <v>-14.37296843493712</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5427441281428462</v>
+        <v>-0.5050382959586751</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.61518948869922</v>
+        <v>-10.21943535839953</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.56848878903184</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.85218599585282</v>
+        <v>-14.68921301007901</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4226746187813765</v>
+        <v>-0.426995078719146</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.18395521769845</v>
+        <v>-9.796161207526522</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.35243711874044</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.31519528585046</v>
+        <v>-15.14744360953943</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3679487929029615</v>
+        <v>-0.3675691161205514</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.970419758349896</v>
+        <v>-9.578842072656711</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.10338641359486</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.77948762152659</v>
+        <v>-15.59208439865013</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3310415911921357</v>
+        <v>-0.3509157069058759</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.774519630929149</v>
+        <v>-9.38875492769769</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.80065284626727</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.2738006076188</v>
+        <v>-16.06649708442291</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.347708092709653</v>
+        <v>-0.3699650075405873</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.624678224905594</v>
+        <v>-9.247646087669567</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.44019726297495</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.7910774928954</v>
+        <v>-16.57038054389242</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1227299606774322</v>
+        <v>-0.1518079652889058</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.427102282721107</v>
+        <v>-9.045356916462056</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.02561401008115</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.40583966513149</v>
+        <v>-17.19200308281758</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01573423417666265</v>
+        <v>0.04821623752698503</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.418264978302942</v>
+        <v>-9.068792138548746</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.55780814079773</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.82242364925237</v>
+        <v>-17.61361451122968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1785632046192098</v>
+        <v>0.1733131911796776</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.132983699381729</v>
+        <v>-8.754904177918364</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.05720891257153</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.37753728974156</v>
+        <v>-18.14276611518373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3185199219972614</v>
+        <v>0.2991825907000321</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.044663024411445</v>
+        <v>-8.677842883391964</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.54058891635539</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.89973688088664</v>
+        <v>-18.66412779894694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3702868874334463</v>
+        <v>0.3807083604954603</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.530593753331072</v>
+        <v>-8.175988730862921</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.01413768358623</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.66745642722262</v>
+        <v>-19.42510480931942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5054780065771097</v>
+        <v>0.5166850178096272</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.947488769366276</v>
+        <v>-7.584949811376039</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.494575504899794</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.49509944366517</v>
+        <v>-20.25019482670784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7330222299663087</v>
+        <v>0.7561956059961639</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.39691815796317</v>
+        <v>-7.007042471639409</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.984161283809051</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.3152667551851</v>
+        <v>-21.04565696276544</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8255586264516286</v>
+        <v>0.8367132684727793</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.840351271858553</v>
+        <v>-6.459744935946734</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.478717035081933</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.23073293908996</v>
+        <v>-21.9342053720277</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087142837229315</v>
+        <v>1.082049931423884</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.373388106402709</v>
+        <v>-5.9619101203901</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.983620861337125</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.85476446173799</v>
+        <v>-22.57389528887444</v>
       </c>
       <c r="F17" t="n">
-        <v>1.254239898398265</v>
+        <v>1.259214973478121</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.248225691235808</v>
+        <v>-5.840033873236472</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.494905290393205</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.6526486738213</v>
+        <v>-23.35457621502372</v>
       </c>
       <c r="F18" t="n">
-        <v>1.585291868054151</v>
+        <v>1.581259438778899</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.810078684334603</v>
+        <v>-5.442001682242316</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.010745367381862</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.44068747416763</v>
+        <v>-24.15325905758038</v>
       </c>
       <c r="F19" t="n">
-        <v>1.824462056366802</v>
+        <v>1.832317438071838</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.590429119558965</v>
+        <v>-5.189267868185636</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.535909429245667</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.21255728050443</v>
+        <v>-24.90488816372387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.02749748883629</v>
+        <v>2.056457662722188</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.352607438439011</v>
+        <v>-4.951865140756618</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.069168430795054</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.79073955860074</v>
+        <v>-25.48413091835036</v>
       </c>
       <c r="F21" t="n">
-        <v>2.393741568530735</v>
+        <v>2.411913684875051</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.090002028039669</v>
+        <v>-4.697835188718607</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.620819689183533</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.37088568212331</v>
+        <v>-26.06066356628861</v>
       </c>
       <c r="F22" t="n">
-        <v>2.660510331233746</v>
+        <v>2.701672531368132</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.74867260065303</v>
+        <v>-4.40947721862959</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.206755037771344</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.87491315692408</v>
+        <v>-26.56158816531589</v>
       </c>
       <c r="F23" t="n">
-        <v>2.861843764333809</v>
+        <v>2.898266550839491</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.618378002772172</v>
+        <v>-4.256964982826323</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.837621518598817</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.08369611034108</v>
+        <v>-26.77710056239354</v>
       </c>
       <c r="F24" t="n">
-        <v>2.9590148360251</v>
+        <v>3.024764380896249</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.410969741153547</v>
+        <v>-4.077692080014568</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.531289452989105</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.42107166226952</v>
+        <v>-27.08158824958356</v>
       </c>
       <c r="F25" t="n">
-        <v>3.269145305739907</v>
+        <v>3.331621774900624</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.163656140473342</v>
+        <v>-3.823635943370874</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.296506777482957</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.38768629002312</v>
+        <v>-27.04951210762134</v>
       </c>
       <c r="F26" t="n">
-        <v>3.326411038369617</v>
+        <v>3.410830207093067</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.137798842360932</v>
+        <v>-3.78356040437235</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.12747825746263</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.32010382275413</v>
+        <v>-26.97920644136127</v>
       </c>
       <c r="F27" t="n">
-        <v>3.335130512062206</v>
+        <v>3.422194325959685</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.045144615150037</v>
+        <v>-3.726687440827892</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.022521080627306</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.24207369781744</v>
+        <v>-26.89282342721156</v>
       </c>
       <c r="F28" t="n">
-        <v>3.422587095044937</v>
+        <v>3.485927656193208</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.057883425815037</v>
+        <v>-3.725443672057928</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.972419766917131</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.11062697728651</v>
+        <v>-26.74855934219858</v>
       </c>
       <c r="F29" t="n">
-        <v>3.412348914222707</v>
+        <v>3.49687282136889</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.976174363779824</v>
+        <v>-3.651524530213543</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.968163089917538</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.98521580836562</v>
+        <v>-26.63305904652887</v>
       </c>
       <c r="F30" t="n">
-        <v>3.393155598256736</v>
+        <v>3.469824123697884</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.931568887998063</v>
+        <v>-3.611069314432609</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.007006654077032</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.58575655636172</v>
+        <v>-26.2290305808332</v>
       </c>
       <c r="F31" t="n">
-        <v>3.284096715585158</v>
+        <v>3.364326347399256</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.100773809924531</v>
+        <v>-3.799546106142098</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.078488102727289</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.25321206418187</v>
+        <v>-25.89711451918977</v>
       </c>
       <c r="F32" t="n">
-        <v>3.242279900308685</v>
+        <v>3.316434703604222</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.210317107801253</v>
+        <v>-3.889477134361914</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.176226881013672</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.82852394460196</v>
+        <v>-25.47813464364885</v>
       </c>
       <c r="F33" t="n">
-        <v>3.136310801107754</v>
+        <v>3.196090255883075</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.349488287008802</v>
+        <v>-4.039658940259354</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.297733936449194</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.3611156408495</v>
+        <v>-25.02214282797437</v>
       </c>
       <c r="F34" t="n">
-        <v>3.061501382670132</v>
+        <v>3.115467854983727</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.271379608255064</v>
+        <v>-3.958918708634429</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.43603194699638</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.01350190809883</v>
+        <v>-24.66685700575845</v>
       </c>
       <c r="F35" t="n">
-        <v>2.82529005479971</v>
+        <v>2.861608102882658</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.393282040014375</v>
+        <v>-4.057294272187159</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.592314912635658</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.28732423867965</v>
+        <v>-23.97232343230772</v>
       </c>
       <c r="F36" t="n">
-        <v>2.710339635849355</v>
+        <v>2.740870886076261</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.727607085380692</v>
+        <v>-4.373355555089268</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.76582249616744</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.85789670547104</v>
+        <v>-23.54201871480871</v>
       </c>
       <c r="F37" t="n">
-        <v>2.555693354682887</v>
+        <v>2.585936574247274</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.832816831016802</v>
+        <v>-4.450600141855451</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.951484858439977</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.47414821687721</v>
+        <v>-23.16799780722628</v>
       </c>
       <c r="F38" t="n">
-        <v>2.510289248427781</v>
+        <v>2.528330441743679</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.948094557538201</v>
+        <v>-4.557341686924044</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.151774337694015</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.00865138933964</v>
+        <v>-22.69139870687893</v>
       </c>
       <c r="F39" t="n">
-        <v>2.425136910745195</v>
+        <v>2.488398918076415</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.889663609955577</v>
+        <v>-4.490518573219875</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.363423061496444</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.64846904586091</v>
+        <v>-22.33217210150765</v>
       </c>
       <c r="F40" t="n">
-        <v>2.442654411947424</v>
+        <v>2.471666955044689</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.933719209017985</v>
+        <v>-4.54426247638516</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.580698831056838</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.10540032398611</v>
+        <v>-21.81670195402321</v>
       </c>
       <c r="F41" t="n">
-        <v>2.489603409937854</v>
+        <v>2.555902831528354</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.89689056112421</v>
+        <v>-4.475527886466098</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.805190463556897</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.50628345364589</v>
+        <v>-21.19895473673921</v>
       </c>
       <c r="F42" t="n">
-        <v>2.635294555960581</v>
+        <v>2.681379461963457</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.911462294187051</v>
+        <v>-4.486734897698616</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.032745062422791</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.84203237666807</v>
+        <v>-20.54729845509513</v>
       </c>
       <c r="F43" t="n">
-        <v>2.736419503110073</v>
+        <v>2.792140344004459</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.891928578347196</v>
+        <v>-4.480764807602789</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.261051178909112</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.58038270437618</v>
+        <v>-20.29375291826227</v>
       </c>
       <c r="F44" t="n">
-        <v>2.694393210988133</v>
+        <v>2.742415777811584</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.986585927892875</v>
+        <v>-4.564398438155735</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.491986659887344</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.1511253711045</v>
+        <v>-19.85548808063549</v>
       </c>
       <c r="F45" t="n">
-        <v>2.770616598132662</v>
+        <v>2.819529441549351</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.965297843472229</v>
+        <v>-4.547928321180843</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.721189367774868</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.77769361714995</v>
+        <v>-19.50295164201633</v>
       </c>
       <c r="F46" t="n">
-        <v>2.833119251899062</v>
+        <v>2.860901118529205</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.053186472448735</v>
+        <v>-4.651252775207745</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.950020775369762</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.29814874866321</v>
+        <v>-19.02144292810333</v>
       </c>
       <c r="F47" t="n">
-        <v>2.836758912089062</v>
+        <v>2.893343844971002</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.358734636168939</v>
+        <v>-4.962928136657876</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.180557887648386</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.8426806251024</v>
+        <v>-18.56546420473169</v>
       </c>
       <c r="F48" t="n">
-        <v>2.814344889624027</v>
+        <v>2.859251488371148</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.481409513795912</v>
+        <v>-5.089334320594741</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.406115497347707</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.32096544916246</v>
+        <v>-18.09518868665689</v>
       </c>
       <c r="F49" t="n">
-        <v>2.818717718773164</v>
+        <v>2.888106923834312</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.771849160036763</v>
+        <v>-5.341950303925846</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.626368367942839</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.84122419613309</v>
+        <v>-17.60788008258501</v>
       </c>
       <c r="F50" t="n">
-        <v>2.876952281813161</v>
+        <v>2.940004812298914</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.839038858220501</v>
+        <v>-5.433020362492893</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.836639025429327</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.14909960640524</v>
+        <v>-16.91775861519194</v>
       </c>
       <c r="F51" t="n">
-        <v>2.849248969000069</v>
+        <v>2.917616974439562</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.098750869691822</v>
+        <v>-5.64993363597461</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.025879247349568</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.77323268412213</v>
+        <v>-16.54193096981735</v>
       </c>
       <c r="F52" t="n">
-        <v>2.728145167714103</v>
+        <v>2.798607941608272</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.191103973937357</v>
+        <v>-5.793909690325071</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.193990390180575</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.32991421759844</v>
+        <v>-16.11832951137331</v>
       </c>
       <c r="F53" t="n">
-        <v>2.795884742617193</v>
+        <v>2.867263977710284</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.253423335463973</v>
+        <v>-5.85275959159863</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.338146362479931</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.04149078599522</v>
+        <v>-15.84274962885782</v>
       </c>
       <c r="F54" t="n">
-        <v>2.550692094997348</v>
+        <v>2.624454129207632</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.527628526181084</v>
+        <v>-6.087216550888261</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.455470248076843</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.66426226421656</v>
+        <v>-15.5052562462038</v>
       </c>
       <c r="F55" t="n">
-        <v>2.423094511501885</v>
+        <v>2.462921296746416</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.712701319151724</v>
+        <v>-6.301314979259007</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.554711379071231</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.27515902376046</v>
+        <v>-15.09853076612274</v>
       </c>
       <c r="F56" t="n">
-        <v>2.324457101892321</v>
+        <v>2.40795980941685</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.893636944424378</v>
+        <v>-6.498039921758783</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.637622863583115</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.73300676308459</v>
+        <v>-14.55839472008449</v>
       </c>
       <c r="F57" t="n">
-        <v>2.277089150210956</v>
+        <v>2.363864933445917</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.170172565047316</v>
+        <v>-6.765070530518628</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.705869280403785</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.48776174625337</v>
+        <v>-14.30831864350468</v>
       </c>
       <c r="F58" t="n">
-        <v>2.099871738945352</v>
+        <v>2.185600137952974</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.140976729710267</v>
+        <v>-6.721839746535248</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.767438928431314</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.10181375078213</v>
+        <v>-13.93247790582725</v>
       </c>
       <c r="F59" t="n">
-        <v>2.155356918388587</v>
+        <v>2.235926950076569</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.288487705827994</v>
+        <v>-6.85891615728812</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.820714571221666</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.00658033991142</v>
+        <v>-13.81960916302873</v>
       </c>
       <c r="F60" t="n">
-        <v>1.972719293746508</v>
+        <v>2.055279355466433</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.235516248530371</v>
+        <v>-6.821380525040891</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.86815002427808</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.69792930041772</v>
+        <v>-13.49129348466676</v>
       </c>
       <c r="F61" t="n">
-        <v>1.864236472399966</v>
+        <v>1.933599492855431</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.54603948733043</v>
+        <v>-7.151044710595554</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.91601063210126</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.38832252281659</v>
+        <v>-13.18964682719339</v>
       </c>
       <c r="F62" t="n">
-        <v>1.789086654088459</v>
+        <v>1.854417245268672</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.65428664722582</v>
+        <v>-7.19296626429476</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.961497257074015</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.04078734388297</v>
+        <v>-12.86222142542467</v>
       </c>
       <c r="F63" t="n">
-        <v>1.718571510982922</v>
+        <v>1.786023055223495</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.740433999924378</v>
+        <v>-7.312996496747705</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.010801309993992</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.81442142774952</v>
+        <v>-12.61823326966626</v>
       </c>
       <c r="F64" t="n">
-        <v>1.610036320425013</v>
+        <v>1.670103805862852</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.918450041663328</v>
+        <v>-7.49803001280982</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.068999114265969</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.61116342613173</v>
+        <v>-12.40617724053882</v>
       </c>
       <c r="F65" t="n">
-        <v>1.542977545269692</v>
+        <v>1.594456480043359</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.151218093886376</v>
+        <v>-7.730326742130566</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.132617736428012</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.37446768305616</v>
+        <v>-12.16999209727408</v>
       </c>
       <c r="F66" t="n">
-        <v>1.469739203173076</v>
+        <v>1.525460044067462</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.247001381476442</v>
+        <v>-7.851810220198942</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.209406100966991</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.19808817917243</v>
+        <v>-11.9892659488469</v>
       </c>
       <c r="F67" t="n">
-        <v>1.502181929614874</v>
+        <v>1.574503810512568</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.195365339068676</v>
+        <v>-7.815884941201245</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.298667902963121</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.10068144602999</v>
+        <v>-11.89860175166794</v>
       </c>
       <c r="F68" t="n">
-        <v>1.369714009462289</v>
+        <v>1.437034630674445</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.201348521467345</v>
+        <v>-7.829448566945274</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.39202039321362</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.96814806436319</v>
+        <v>-11.74972917605468</v>
       </c>
       <c r="F69" t="n">
-        <v>1.242862687228805</v>
+        <v>1.324519380052651</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.253338056051838</v>
+        <v>-7.902058478505486</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.492377671031459</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.86060788882125</v>
+        <v>-11.64894462877907</v>
       </c>
       <c r="F70" t="n">
-        <v>1.322450796203658</v>
+        <v>1.371834962522649</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.1988871685331</v>
+        <v>-7.843837007768331</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.594114617837235</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.60372381476375</v>
+        <v>-11.38154743553966</v>
       </c>
       <c r="F71" t="n">
-        <v>1.25351982174197</v>
+        <v>1.310353508377903</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.048692270332818</v>
+        <v>-7.700162076383228</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.689959072982571</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.56016572320932</v>
+        <v>-11.32549928707423</v>
       </c>
       <c r="F72" t="n">
-        <v>1.285203194618947</v>
+        <v>1.362303766053872</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.042499611088681</v>
+        <v>-7.702793629254415</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.782635484818352</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.54495246730724</v>
+        <v>-11.29962889665898</v>
       </c>
       <c r="F73" t="n">
-        <v>1.23918375013028</v>
+        <v>1.335569283651068</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.931123390814118</v>
+        <v>-7.586874379893773</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.864881560321336</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.73056204469439</v>
+        <v>-11.49516243960016</v>
       </c>
       <c r="F74" t="n">
-        <v>1.283776133609199</v>
+        <v>1.382727758486965</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.8131093729988</v>
+        <v>-7.472578576085504</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.932574528466665</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.85660164415169</v>
+        <v>-11.62375503811159</v>
       </c>
       <c r="F75" t="n">
-        <v>1.223905032713986</v>
+        <v>1.314595414498622</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.658319076501073</v>
+        <v>-7.342179239781913</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.986085580463961</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.18702518327117</v>
+        <v>-11.96144480530823</v>
       </c>
       <c r="F76" t="n">
-        <v>1.245062194106215</v>
+        <v>1.34051817412524</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.471007499744498</v>
+        <v>-7.146855173686202</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.01540497769357</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.7826595010555</v>
+        <v>-12.57408602448396</v>
       </c>
       <c r="F77" t="n">
-        <v>1.219754772713159</v>
+        <v>1.314385937653155</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.285803783745441</v>
+        <v>-6.975411467973799</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.01727992019201</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.31035785939411</v>
+        <v>-13.10382678206588</v>
       </c>
       <c r="F78" t="n">
-        <v>1.238948088679129</v>
+        <v>1.342324911917398</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.156072154886777</v>
+        <v>-6.83820413419251</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.989329638643051</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.81365216523574</v>
+        <v>-13.59935735232237</v>
       </c>
       <c r="F79" t="n">
-        <v>1.268693800735531</v>
+        <v>1.402025812875669</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.959072274027324</v>
+        <v>-6.662832737627589</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.922526301420852</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.351719627425</v>
+        <v>-14.1575607762822</v>
       </c>
       <c r="F80" t="n">
-        <v>1.323079226740061</v>
+        <v>1.389142986879411</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.715987487164996</v>
+        <v>-6.396207990255838</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.820748528084447</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.11559003672551</v>
+        <v>-14.94193373183285</v>
       </c>
       <c r="F81" t="n">
-        <v>1.342115435071931</v>
+        <v>1.451514717617394</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.601573852631152</v>
+        <v>-6.280550586952029</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.684933578582028</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.87233823328012</v>
+        <v>-15.69618129854469</v>
       </c>
       <c r="F82" t="n">
-        <v>1.376338714700203</v>
+        <v>1.484952459075162</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.503067366050006</v>
+        <v>-6.19552917229786</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.510883660750341</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.73090526903483</v>
+        <v>-16.5648817766989</v>
       </c>
       <c r="F83" t="n">
-        <v>1.323393442008262</v>
+        <v>1.441119429161063</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.244167077354873</v>
+        <v>-5.935660053192439</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.307208287712964</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.80584879385475</v>
+        <v>-17.63559648770094</v>
       </c>
       <c r="F84" t="n">
-        <v>1.427241588148834</v>
+        <v>1.525512413278829</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.062904144511175</v>
+        <v>-5.747471292145469</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.078612912158018</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.61888080032594</v>
+        <v>-18.44765966376184</v>
       </c>
       <c r="F85" t="n">
-        <v>1.406608118870273</v>
+        <v>1.516976231826024</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.852104976456544</v>
+        <v>-5.539853553681377</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.826536721971584</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.68227691403945</v>
+        <v>-19.53505396858424</v>
       </c>
       <c r="F86" t="n">
-        <v>1.419909898557467</v>
+        <v>1.512629587282571</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.562699622140189</v>
+        <v>-5.242789202202613</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.562969419806521</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.76156708340282</v>
+        <v>-20.59440456071966</v>
       </c>
       <c r="F87" t="n">
-        <v>1.448110718878545</v>
+        <v>1.535960070946527</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.272993144858475</v>
+        <v>-4.970901349088487</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.290796797786925</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.11660733521863</v>
+        <v>-21.95675031752116</v>
       </c>
       <c r="F88" t="n">
-        <v>1.498882669298758</v>
+        <v>1.588041251650913</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.006302935972514</v>
+        <v>-4.659919879688968</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.010790520285651</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.58395336081076</v>
+        <v>-23.42369048172519</v>
       </c>
       <c r="F89" t="n">
-        <v>1.295938882949163</v>
+        <v>1.381313789780058</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.640752748328681</v>
+        <v>-4.320344820883119</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.727488744836521</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.08857317259329</v>
+        <v>-24.91237696094934</v>
       </c>
       <c r="F90" t="n">
-        <v>1.154293258504528</v>
+        <v>1.232663783315101</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.449762234473582</v>
+        <v>-4.126945323305142</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.43497027288455</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.68133036710632</v>
+        <v>-26.5663930404588</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9819330915932047</v>
+        <v>1.067648398297985</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.408141803739734</v>
+        <v>-4.088034999259532</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.129434623024495</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.38865830378729</v>
+        <v>-28.26748904098711</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9066916271618051</v>
+        <v>0.9829673835177011</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.167924231199744</v>
+        <v>-3.842135367286233</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.811046945854661</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.29966319577699</v>
+        <v>-30.1607931395348</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8037861268258382</v>
+        <v>0.8599390137140013</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.224757917835677</v>
+        <v>-3.884004551774073</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.473738089735077</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.4488825379719</v>
+        <v>-32.3021963769332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7458788713568838</v>
+        <v>0.768711847512854</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.250471200616827</v>
+        <v>-3.921487814809935</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.120684725864448</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.54399139252195</v>
+        <v>-34.39416307880124</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3288497489393833</v>
+        <v>0.3576266305854972</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.271327239043696</v>
+        <v>-3.925350044148244</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.755360966685829</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.57333760989802</v>
+        <v>-36.41256413100162</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0797425027698614</v>
+        <v>0.07718950371572482</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.447876942864372</v>
+        <v>-4.101939024877445</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.381700631505584</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.72270096742419</v>
+        <v>-38.54668804802002</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2416080704803049</v>
+        <v>-0.2499478673904844</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.545689537394908</v>
+        <v>-4.188256577512945</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.007051105848629</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.07791460253082</v>
+        <v>-40.89161113309306</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5124747239727756</v>
+        <v>-0.5130376929949698</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.768441977944035</v>
+        <v>-4.394826931749699</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.647562014119909</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.49711032162496</v>
+        <v>-43.31569028114716</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4097263312709094</v>
+        <v>-0.4296920931045417</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.083063107533555</v>
+        <v>-4.714370767207707</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.295440340093728</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.97057363599806</v>
+        <v>-45.79969289930785</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5382796528738176</v>
+        <v>-0.5744536856255068</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.313448360639408</v>
+        <v>-4.9588564304741</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.97570162860431</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.38701997149544</v>
+        <v>-48.2027327166953</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5778314997586721</v>
+        <v>-0.6007561220345344</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.676118241658062</v>
+        <v>-5.316302482658904</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.656808913357354</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.67002955642995</v>
+        <v>-50.49438322150535</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7015537616129834</v>
+        <v>-0.7247925991570472</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.97722811471492</v>
+        <v>-5.635335718306085</v>
       </c>
     </row>
   </sheetData>
